--- a/20241001/コピー先関数データ.xlsx
+++ b/20241001/コピー先関数データ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\chargeability\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE48D2E-792B-46BA-8264-4BDF8CD26266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86AC6EE1-ABC6-40C7-9EEE-4D51501F98AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28690" yWindow="-110" windowWidth="29020" windowHeight="15700" xr2:uid="{F00E597F-B5DD-4BA9-9ACC-4C4538BA50E3}"/>
   </bookViews>
@@ -745,7 +745,7 @@
   <dimension ref="B2:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>

--- a/20241001/コピー先関数データ.xlsx
+++ b/20241001/コピー先関数データ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\chargeability\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86AC6EE1-ABC6-40C7-9EEE-4D51501F98AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F600B15-6420-4F1A-B89C-8CC7400C9C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28690" yWindow="-110" windowWidth="29020" windowHeight="15700" xr2:uid="{F00E597F-B5DD-4BA9-9ACC-4C4538BA50E3}"/>
   </bookViews>
@@ -745,10 +745,13 @@
   <dimension ref="B2:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" t="s">
@@ -775,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <f>VLOOKUP(B3,社員データ!$B$3:$D$22,3)</f>
+        <f>VLOOKUP(B3,社員データ!B3:D22,3)</f>
         <v>0</v>
       </c>
     </row>
@@ -790,7 +793,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="str">
-        <f>VLOOKUP(B4,社員データ!$B$3:$D$22,3)</f>
+        <f>VLOOKUP(B4,社員データ!B4:D23,3)</f>
         <v>キャプテン</v>
       </c>
     </row>
@@ -805,7 +808,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="str">
-        <f>VLOOKUP(B5,社員データ!$B$3:$D$22,3)</f>
+        <f>VLOOKUP(B5,社員データ!B5:D24,3)</f>
         <v>書記</v>
       </c>
     </row>
@@ -820,7 +823,7 @@
         <v>2</v>
       </c>
       <c r="E6">
-        <f>VLOOKUP(B6,社員データ!$B$3:$D$22,3)</f>
+        <f>VLOOKUP(B6,社員データ!B6:D25,3)</f>
         <v>0</v>
       </c>
     </row>
@@ -835,7 +838,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="str">
-        <f>VLOOKUP(B7,社員データ!$B$3:$D$22,3)</f>
+        <f>VLOOKUP(B7,社員データ!B7:D26,3)</f>
         <v>副キャプテン</v>
       </c>
     </row>
@@ -850,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <f>VLOOKUP(B8,社員データ!$B$3:$D$22,3)</f>
+        <f>VLOOKUP(B8,社員データ!B8:D27,3)</f>
         <v>0</v>
       </c>
     </row>
@@ -865,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <f>VLOOKUP(B9,社員データ!$B$3:$D$22,3)</f>
+        <f>VLOOKUP(B9,社員データ!B9:D28,3)</f>
         <v>0</v>
       </c>
     </row>
@@ -880,7 +883,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="str">
-        <f>VLOOKUP(B10,社員データ!$B$3:$D$22,3)</f>
+        <f>VLOOKUP(B10,社員データ!B10:D29,3)</f>
         <v>主任</v>
       </c>
     </row>
@@ -895,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <f>VLOOKUP(B11,社員データ!$B$3:$D$22,3)</f>
+        <f>VLOOKUP(B11,社員データ!B11:D30,3)</f>
         <v>0</v>
       </c>
     </row>
@@ -910,7 +913,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <f>VLOOKUP(B12,社員データ!$B$3:$D$22,3)</f>
+        <f>VLOOKUP(B12,社員データ!B12:D31,3)</f>
         <v>0</v>
       </c>
     </row>
@@ -925,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <f>VLOOKUP(B13,社員データ!$B$3:$D$22,3)</f>
+        <f>VLOOKUP(B13,社員データ!B13:D32,3)</f>
         <v>0</v>
       </c>
     </row>
@@ -940,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="str">
-        <f>VLOOKUP(B14,社員データ!$B$3:$D$22,3)</f>
+        <f>VLOOKUP(B14,社員データ!B14:D33,3)</f>
         <v>班長</v>
       </c>
     </row>
@@ -955,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <f>VLOOKUP(B15,社員データ!$B$3:$D$22,3)</f>
+        <f>VLOOKUP(B15,社員データ!B15:D34,3)</f>
         <v>0</v>
       </c>
     </row>
@@ -970,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="str">
-        <f>VLOOKUP(B16,社員データ!$B$3:$D$22,3)</f>
+        <f>VLOOKUP(B16,社員データ!B16:D35,3)</f>
         <v>副班長</v>
       </c>
     </row>
@@ -985,7 +988,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="str">
-        <f>VLOOKUP(B17,社員データ!$B$3:$D$22,3)</f>
+        <f>VLOOKUP(B17,社員データ!B17:D36,3)</f>
         <v>軍団長</v>
       </c>
     </row>
@@ -1000,7 +1003,7 @@
         <v>2</v>
       </c>
       <c r="E18">
-        <f>VLOOKUP(B18,社員データ!$B$3:$D$22,3)</f>
+        <f>VLOOKUP(B18,社員データ!B18:D37,3)</f>
         <v>0</v>
       </c>
     </row>
@@ -1015,7 +1018,7 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <f>VLOOKUP(B19,社員データ!$B$3:$D$22,3)</f>
+        <f>VLOOKUP(B19,社員データ!B19:D38,3)</f>
         <v>0</v>
       </c>
     </row>
@@ -1030,7 +1033,7 @@
         <v>2</v>
       </c>
       <c r="E20">
-        <f>VLOOKUP(B20,社員データ!$B$3:$D$22,3)</f>
+        <f>VLOOKUP(B20,社員データ!B20:D39,3)</f>
         <v>0</v>
       </c>
     </row>
@@ -1045,7 +1048,7 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <f>VLOOKUP(B21,社員データ!$B$3:$D$22,3)</f>
+        <f>VLOOKUP(B21,社員データ!B21:D40,3)</f>
         <v>0</v>
       </c>
     </row>
@@ -1060,7 +1063,7 @@
         <v>2</v>
       </c>
       <c r="E22">
-        <f>VLOOKUP(B22,社員データ!$B$3:$D$22,3)</f>
+        <f>VLOOKUP(B22,社員データ!B22:D41,3)</f>
         <v>0</v>
       </c>
     </row>
